--- a/databases/Orcus - Disciplines.xlsx
+++ b/databases/Orcus - Disciplines.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Obsidian\Tabletop games\d20 System or D&amp;D-esque\2021 Orcus - 4E clone\GitHub\orcus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Obsidian\Tabletop games\d20 System or D&amp;D-esque\2021 Orcus - 4E clone\GitHub\orcus\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6DB408-D563-4A3C-813A-EE8AB85F8EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C3F130-921B-4EC3-98D5-FFC71552AF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Key Ability</t>
+  </si>
+  <si>
+    <t>Third Mind</t>
+  </si>
+  <si>
+    <t>Phrenic</t>
   </si>
 </sst>
 </file>
@@ -639,9 +645,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -997,70 +1001,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1068,38 +1075,38 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1107,30 +1114,30 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1138,114 +1145,114 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1253,33 +1260,33 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -1287,47 +1294,61 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" s="1" t="s">
         <v>17</v>
       </c>
     </row>
